--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T01:19:57+00:00</t>
+    <t>2021-11-16T04:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T04:51:36+00:00</t>
+    <t>2021-11-17T13:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T13:47:01+00:00</t>
+    <t>2021-11-18T22:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-18T22:04:47+00:00</t>
+    <t>2021-11-19T00:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:04:47+00:00</t>
+    <t>2021-11-19T00:13:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:13:18+00:00</t>
+    <t>2021-11-19T18:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:00:23+00:00</t>
+    <t>2021-11-19T18:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:02:16+00:00</t>
+    <t>2021-11-19T21:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T21:14:24+00:00</t>
+    <t>2021-11-22T14:07:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:07:32+00:00</t>
+    <t>2021-11-22T14:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:10:59+00:00</t>
+    <t>2021-11-23T21:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T21:25:23+00:00</t>
+    <t>2021-11-24T19:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -132,121 +132,46 @@
     <t>1</t>
   </si>
   <si>
-    <t>WXS</t>
-  </si>
-  <si>
-    <t>Whole Exome Sequencing</t>
-  </si>
-  <si>
-    <t>Process of determining the complete DNA sequence of the genome at a single time</t>
-  </si>
-  <si>
-    <t>WGS</t>
-  </si>
-  <si>
-    <t>Whole Genome Sequencing</t>
-  </si>
-  <si>
-    <t>Process of determining all of the exons within the genome sequence at a single time</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>Gene Panel</t>
-  </si>
-  <si>
-    <t>Process of determining the complete sequences of the indicated gene panel at a single time</t>
-  </si>
-  <si>
-    <t>PCA</t>
-  </si>
-  <si>
-    <t>Prédisposition aux cancers chez l'adulte</t>
-  </si>
-  <si>
-    <t>PTSE</t>
-  </si>
-  <si>
-    <t>Prédisposition aux tumeurs solides de l'enfant</t>
-  </si>
-  <si>
-    <t>PHME</t>
-  </si>
-  <si>
-    <t>Prédisposition aux hématopathies malignes de l'enfant</t>
-  </si>
-  <si>
-    <t>SED</t>
-  </si>
-  <si>
-    <t>Syndrome d’Ehlers-Danlos</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>Syndromes polymalformatifs (trio)</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>Maladies musculaires</t>
-  </si>
-  <si>
-    <t>SLA</t>
-  </si>
-  <si>
-    <t>Sclérose latérale amyotrophique</t>
-  </si>
-  <si>
-    <t>RET</t>
-  </si>
-  <si>
-    <t>Retinopathies</t>
-  </si>
-  <si>
-    <t>SUR</t>
-  </si>
-  <si>
-    <t>Surdité</t>
+    <t>MM-PG</t>
+  </si>
+  <si>
+    <t>Maladies musculaires (Panel global)</t>
+  </si>
+  <si>
+    <t>MM-DYST</t>
+  </si>
+  <si>
+    <t>Dystrophies Musculaires</t>
+  </si>
+  <si>
+    <t>MM-RHAB</t>
+  </si>
+  <si>
+    <t>Rhabdomyolyse</t>
+  </si>
+  <si>
+    <t>MM-MYOP</t>
+  </si>
+  <si>
+    <t>Myopathies congénitales</t>
+  </si>
+  <si>
+    <t>MM-MYAS</t>
+  </si>
+  <si>
+    <t>Myasthenias congénitales</t>
+  </si>
+  <si>
+    <t>MM-HYP</t>
+  </si>
+  <si>
+    <t>Hyperthermie maligne</t>
   </si>
   <si>
     <t>DI</t>
   </si>
   <si>
-    <t>Déficience Intellectuelle (trio)</t>
-  </si>
-  <si>
-    <t>GMN</t>
-  </si>
-  <si>
-    <t>Gènes mitochondriaux nucléaires</t>
-  </si>
-  <si>
-    <t>RAS</t>
-  </si>
-  <si>
-    <t>Rasopathies</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>Cardiomyopathies</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>Arythmies héréditaires</t>
-  </si>
-  <si>
-    <t>AOR</t>
-  </si>
-  <si>
-    <t>Aortopathies</t>
+    <t>Déficience intellectuelle (Trio)</t>
   </si>
 </sst>
 </file>
@@ -549,7 +474,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -579,47 +504,41 @@
       <c r="C2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>47</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -628,10 +547,10 @@
         <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -640,10 +559,10 @@
         <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -652,144 +571,12 @@
         <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T19:02:36+00:00</t>
+    <t>2021-11-24T22:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T22:31:44+00:00</t>
+    <t>2021-11-30T21:05:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -132,37 +132,37 @@
     <t>1</t>
   </si>
   <si>
-    <t>MM-PG</t>
+    <t>MMG</t>
   </si>
   <si>
     <t>Maladies musculaires (Panel global)</t>
   </si>
   <si>
-    <t>MM-DYST</t>
+    <t>DYSTM</t>
   </si>
   <si>
     <t>Dystrophies Musculaires</t>
   </si>
   <si>
-    <t>MM-RHAB</t>
+    <t>RHAB</t>
   </si>
   <si>
     <t>Rhabdomyolyse</t>
   </si>
   <si>
-    <t>MM-MYOP</t>
+    <t>MYOPC</t>
   </si>
   <si>
     <t>Myopathies congénitales</t>
   </si>
   <si>
-    <t>MM-MYAS</t>
+    <t>MYASC</t>
   </si>
   <si>
     <t>Myasthenias congénitales</t>
   </si>
   <si>
-    <t>MM-HYP</t>
+    <t>HYPM</t>
   </si>
   <si>
     <t>Hyperthermie maligne</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T21:05:25+00:00</t>
+    <t>2021-12-08T16:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Rhabdomyolyse</t>
+  </si>
+  <si>
+    <t>MITN</t>
+  </si>
+  <si>
+    <t>Mitochondriopathie nucléaire</t>
   </si>
   <si>
     <t>MYOPC</t>
@@ -474,7 +480,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -578,6 +584,18 @@
       </c>
       <c r="D8" s="2"/>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T16:36:19+00:00</t>
+    <t>2021-12-14T20:47:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T20:47:31+00:00</t>
+    <t>2022-03-11T19:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:19:27+00:00</t>
+    <t>2022-03-11T19:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:55:52+00:00</t>
+    <t>2022-04-11T17:12:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-service-request-code.xlsx
+++ b/ig/CodeSystem-service-request-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:12:20+00:00</t>
+    <t>2022-04-12T17:10:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
